--- a/DataTable/数据库表格设计.xlsx
+++ b/DataTable/数据库表格设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>r_user_information_t</t>
   </si>
@@ -22,9 +22,6 @@
     <t>字段名</t>
   </si>
   <si>
-    <t>属性</t>
-  </si>
-  <si>
     <t>中文释义</t>
   </si>
   <si>
@@ -116,6 +113,12 @@
   </si>
   <si>
     <t>专业</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>邮箱</t>
   </si>
   <si>
     <t>birthday</t>
@@ -1242,10 +1245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1263,449 +1266,458 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1"/>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
       <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
         <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
         <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
         <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
         <v>69</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
         <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
         <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
         <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
         <v>80</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
         <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
         <v>84</v>
       </c>
-      <c r="C43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
         <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
